--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Зарплата</t>
   </si>
@@ -40,6 +46,120 @@
   </si>
   <si>
     <t>СУММА:</t>
+  </si>
+  <si>
+    <t>20А</t>
+  </si>
+  <si>
+    <t>20С</t>
+  </si>
+  <si>
+    <t>21B</t>
+  </si>
+  <si>
+    <t>22А</t>
+  </si>
+  <si>
+    <t>22C</t>
+  </si>
+  <si>
+    <t>23B</t>
+  </si>
+  <si>
+    <t>24A</t>
+  </si>
+  <si>
+    <t>24C</t>
+  </si>
+  <si>
+    <t>это первая строка это первая строка</t>
+  </si>
+  <si>
+    <t>1 байт = 8 бит 1 киломабайт = 1024 байт 1 километр = 1000м</t>
+  </si>
+  <si>
+    <t>месяц</t>
+  </si>
+  <si>
+    <t>январь</t>
+  </si>
+  <si>
+    <t>февраль</t>
+  </si>
+  <si>
+    <t>март</t>
+  </si>
+  <si>
+    <t>среда</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>физика</t>
+  </si>
+  <si>
+    <t>ОИВТ</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>НПВ</t>
+  </si>
+  <si>
+    <t>НВп</t>
+  </si>
+  <si>
+    <t>понедельник</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>наименование устройства</t>
+  </si>
+  <si>
+    <t>Инфомационная емкость в Гб</t>
+  </si>
+  <si>
+    <t>Информационная емкость в Мб</t>
+  </si>
+  <si>
+    <t>Жесткий магнитный диск</t>
+  </si>
+  <si>
+    <t>СD- Диск</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>DVD -диск</t>
+  </si>
+  <si>
+    <t>нету</t>
+  </si>
+  <si>
+    <t>нету x1000</t>
+  </si>
+  <si>
+    <t>Flash -память</t>
   </si>
 </sst>
 </file>
@@ -64,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +221,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -199,17 +355,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,6 +366,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -228,7 +385,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -545,120 +744,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -671,24 +870,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="3" max="3" width="9.140625" style="16"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="21"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L3:L9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K5:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F6:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="24"/>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="24"/>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="24"/>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="24"/>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="24"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="24"/>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F8:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="30">
+        <v>250</v>
+      </c>
+      <c r="C2" s="31">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="31">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="35">
+        <v>16</v>
+      </c>
+      <c r="C5" s="34">
+        <v>16000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,21 @@
     <sheet name="Лист7" sheetId="7" r:id="rId7"/>
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
+    <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист11" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист12" sheetId="12" r:id="rId12"/>
+    <sheet name="Лист13" sheetId="13" r:id="rId13"/>
+    <sheet name="Лист14" sheetId="14" r:id="rId14"/>
+    <sheet name="Лист15" sheetId="15" r:id="rId15"/>
+    <sheet name="Лист16" sheetId="16" r:id="rId16"/>
+    <sheet name="Лист17" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>Зарплата</t>
   </si>
@@ -160,12 +168,232 @@
   </si>
   <si>
     <t>Flash -память</t>
+  </si>
+  <si>
+    <t>Абитуриентам</t>
+  </si>
+  <si>
+    <t>Фамилия Имя</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>ИиКТ</t>
+  </si>
+  <si>
+    <t>СУММА БАЛЛОВ</t>
+  </si>
+  <si>
+    <t>СРЕДНИЙ БАЛЛ</t>
+  </si>
+  <si>
+    <t>Лосева Анна</t>
+  </si>
+  <si>
+    <t>Жираф Евгений</t>
+  </si>
+  <si>
+    <t>Петр Петрович</t>
+  </si>
+  <si>
+    <t>Холодный Кирилл</t>
+  </si>
+  <si>
+    <t>Щукин Михаил</t>
+  </si>
+  <si>
+    <t>Элементальная Ульяна</t>
+  </si>
+  <si>
+    <t>Зузука Георгий</t>
+  </si>
+  <si>
+    <t>Юный Андрей</t>
+  </si>
+  <si>
+    <t>Горила Артем</t>
+  </si>
+  <si>
+    <t>Русский Дима</t>
+  </si>
+  <si>
+    <t>Название озер</t>
+  </si>
+  <si>
+    <t>Площадь (тыс.кв.м)</t>
+  </si>
+  <si>
+    <t>Глубина (м)</t>
+  </si>
+  <si>
+    <t>Высота над уровнем моря</t>
+  </si>
+  <si>
+    <t>Байкал</t>
+  </si>
+  <si>
+    <t>Таньганьика</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Гурон</t>
+  </si>
+  <si>
+    <t>Аральское Море</t>
+  </si>
+  <si>
+    <t>Мичиган</t>
+  </si>
+  <si>
+    <t>Мелкое озеро</t>
+  </si>
+  <si>
+    <t>Обширное Озеро</t>
+  </si>
+  <si>
+    <t>Средняя высота над уровнем моря</t>
+  </si>
+  <si>
+    <t>№№</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Алгебра</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>СРЕДНИЙ БАЛЛ ПО ГРУППЕ</t>
+  </si>
+  <si>
+    <t>ООО Аленький цветочек</t>
+  </si>
+  <si>
+    <t>Прайс лист на</t>
+  </si>
+  <si>
+    <t>№ поз</t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>Наи. Товара</t>
+  </si>
+  <si>
+    <t>Палка капалка</t>
+  </si>
+  <si>
+    <t>Самодельный нож</t>
+  </si>
+  <si>
+    <t>Маишна любая</t>
+  </si>
+  <si>
+    <t>Вода</t>
+  </si>
+  <si>
+    <t>Территория</t>
+  </si>
+  <si>
+    <t>Дрова</t>
+  </si>
+  <si>
+    <t>Мясо мамонта</t>
+  </si>
+  <si>
+    <t>Цена (руб)</t>
+  </si>
+  <si>
+    <t>Цена ($)</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>цена в $</t>
+  </si>
+  <si>
+    <t>цена в р</t>
+  </si>
+  <si>
+    <t>кофеварка</t>
+  </si>
+  <si>
+    <t>холодиьник</t>
+  </si>
+  <si>
+    <t>Плеер</t>
+  </si>
+  <si>
+    <t>Тостер</t>
+  </si>
+  <si>
+    <t>Тлевизор</t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t>намен. товара</t>
+  </si>
+  <si>
+    <t>цена $</t>
+  </si>
+  <si>
+    <t>цена руб</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кол-во</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +595,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,23 +644,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,22 +656,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,13 +983,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -851,12 +1090,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="8"/>
     </row>
   </sheetData>
@@ -864,6 +1103,1196 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:D14"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3.3333333333000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>4.6666666667000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>3.3333333333000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>4.3333333332999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>4.6666666667000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>3.6666666666999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>1520</v>
+      </c>
+      <c r="D2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>14701</v>
+      </c>
+      <c r="D3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>288</v>
+      </c>
+      <c r="D5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>281</v>
+      </c>
+      <c r="D7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>461.66666666999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39">
+        <v>38704</v>
+      </c>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="41">
+        <v>300</v>
+      </c>
+      <c r="D5" s="38">
+        <f>C5*$C$3</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="41">
+        <v>100</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6:D11" si="0">C6*$C$3</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>3</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="41">
+        <v>50</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>4</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="41">
+        <v>400</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>5</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>6</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="41">
+        <v>500</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="0"/>
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>7</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="41">
+        <v>200</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="36">
+        <v>1350</v>
+      </c>
+      <c r="C3" s="43">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="36">
+        <v>450</v>
+      </c>
+      <c r="C4" s="43">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="36">
+        <v>213</v>
+      </c>
+      <c r="C5" s="43">
+        <f t="shared" si="0"/>
+        <v>14377.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="36">
+        <v>554</v>
+      </c>
+      <c r="C6" s="43">
+        <f t="shared" si="0"/>
+        <v>37395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="36">
+        <v>1235</v>
+      </c>
+      <c r="C7" s="43">
+        <f t="shared" si="0"/>
+        <v>83362.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="36">
+        <v>70</v>
+      </c>
+      <c r="C2" s="43">
+        <f>B2*$E$1</f>
+        <v>2219</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="43">
+        <f>C2*D2</f>
+        <v>22190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="36">
+        <v>90</v>
+      </c>
+      <c r="C3" s="43">
+        <f t="shared" ref="C3:C7" si="0">B3*$E$1</f>
+        <v>2853</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" ref="E3:E7" si="1">C3*D3</f>
+        <v>14265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="36">
+        <v>123</v>
+      </c>
+      <c r="C4" s="43">
+        <f t="shared" si="0"/>
+        <v>3899.1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="43">
+        <f t="shared" si="1"/>
+        <v>19495.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="36">
+        <v>53</v>
+      </c>
+      <c r="C5" s="43">
+        <f t="shared" si="0"/>
+        <v>1680.1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" si="1"/>
+        <v>6720.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="36">
+        <v>7</v>
+      </c>
+      <c r="C6" s="43">
+        <f t="shared" si="0"/>
+        <v>221.9</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="1"/>
+        <v>2662.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="36">
+        <v>123</v>
+      </c>
+      <c r="C7" s="43">
+        <f t="shared" si="0"/>
+        <v>3899.1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="1"/>
+        <v>15596.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -878,61 +2307,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="3" max="3" width="9.140625" style="16"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="9"/>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="9"/>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="18"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -956,37 +2385,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L3" s="21"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="21"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L6" s="21"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="21"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="21"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L9" s="21"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="22"/>
+      <c r="D12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1011,7 +2440,7 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1031,11 +2460,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
@@ -1067,7 +2496,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
@@ -1075,37 +2504,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="33"/>
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="33"/>
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1126,11 +2555,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
@@ -1144,7 +2573,7 @@
       </c>
     </row>
     <row r="8" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="34" t="s">
         <v>31</v>
       </c>
       <c r="G8" t="s">
@@ -1158,7 +2587,7 @@
       </c>
     </row>
     <row r="9" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="24"/>
+      <c r="F9" s="34"/>
       <c r="G9" t="s">
         <v>24</v>
       </c>
@@ -1170,19 +2599,19 @@
       </c>
     </row>
     <row r="10" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="24"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="24"/>
+      <c r="F11" s="34"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -1194,11 +2623,11 @@
       </c>
     </row>
     <row r="12" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="24"/>
+      <c r="F12" s="34"/>
       <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I12" t="s">
@@ -1206,7 +2635,7 @@
       </c>
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="24"/>
+      <c r="F13" s="34"/>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -1218,13 +2647,13 @@
       </c>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="24"/>
+      <c r="F14" s="34"/>
       <c r="H14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="24"/>
+      <c r="F15" s="34"/>
       <c r="H15" t="s">
         <v>26</v>
       </c>
@@ -1253,40 +2682,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1301,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,57 +2742,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="20">
         <v>250</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="21">
         <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="21">
         <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="25">
         <v>16</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="24">
         <v>16000</v>
       </c>
     </row>
